--- a/flows/BNO_fund_flow_data.xlsx
+++ b/flows/BNO_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3459"/>
+  <dimension ref="A1:B3476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35025,6 +35025,176 @@
         <v>-5.9136</v>
       </c>
     </row>
+    <row r="3460">
+      <c r="A3460" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B3460" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3461">
+      <c r="A3461" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B3461" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3462">
+      <c r="A3462" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B3462" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3463">
+      <c r="A3463" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B3463" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3464">
+      <c r="A3464" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B3464" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3465">
+      <c r="A3465" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B3465" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3466">
+      <c r="A3466" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B3466" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3467">
+      <c r="A3467" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B3467" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3468">
+      <c r="A3468" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B3468" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3469">
+      <c r="A3469" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B3469" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3470">
+      <c r="A3470" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B3470" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3471">
+      <c r="A3471" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B3471" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3472">
+      <c r="A3472" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B3472" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3473">
+      <c r="A3473" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B3473" t="n">
+        <v>-1.4948</v>
+      </c>
+    </row>
+    <row r="3474">
+      <c r="A3474" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B3474" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3475">
+      <c r="A3475" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B3475" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3476">
+      <c r="A3476" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B3476" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
